--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,16 +1042,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,16 +1136,19 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,16 +1232,19 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1212,16 +1264,19 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,16 +1424,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1386,16 +1456,19 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,16 +1520,19 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,13 +1619,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,13 +1777,16 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1986,16 +2117,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2044,7 +2181,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,13 +2216,16 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2250,13 +2408,16 @@
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2393,7 +2567,7 @@
         <v>-121800</v>
       </c>
       <c r="E72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="F72" s="3">
         <v>-121700</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2524,13 +2710,16 @@
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,50 +2747,56 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,13 +3022,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,13 +3402,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1024,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,8 +1088,8 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1179,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1150,8 +1193,8 @@
       <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1284,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1246,8 +1298,8 @@
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1267,8 +1319,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1278,8 +1333,8 @@
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,8 +1508,8 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1459,8 +1529,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1470,8 +1543,8 @@
       <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1599,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1534,8 +1613,8 @@
       <c r="E35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,16 +1706,17 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,16 +1879,19 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2159,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2120,16 +2251,19 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,8 +2294,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2184,7 +2321,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2192,8 +2329,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2219,13 +2359,16 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2411,13 +2569,16 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2570,7 +2744,7 @@
         <v>-121800</v>
       </c>
       <c r="F72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="G72" s="3">
         <v>-121700</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2713,13 +2899,16 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2939,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2798,8 +2993,8 @@
       <c r="E81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,16 +3239,19 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,16 +3654,19 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,64 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43190</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1015,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1051,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,8 +1089,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,19 +1107,20 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1112,8 +1143,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,19 +1219,22 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1217,8 +1257,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,19 +1333,22 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1322,19 +1371,22 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1357,8 +1409,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,19 +1561,22 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1532,19 +1599,22 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1567,8 +1637,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,19 +1675,22 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1637,48 +1713,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43190</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,16 +1790,17 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1742,8 +1826,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1864,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1940,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,16 +1978,19 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1917,8 +2016,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2054,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2092,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2244,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2282,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2320,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2354,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2254,16 +2382,19 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,20 +2404,20 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,8 +2428,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2324,7 +2458,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2332,8 +2466,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2362,13 +2499,16 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2542,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2580,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2694,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2572,13 +2727,16 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +2900,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2747,10 +2918,10 @@
         <v>-121800</v>
       </c>
       <c r="G72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="H72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="I72" s="3">
         <v>-121700</v>
@@ -2767,8 +2938,11 @@
       <c r="M72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3052,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2902,13 +3085,16 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,59 +3128,65 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I80" s="2">
-        <v>43190</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3017,8 +3209,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,16 +3453,19 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3277,8 +3491,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3659,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,13 +3827,16 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3622,8 +3865,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,16 +3903,19 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3690,6 +3939,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,67 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,8 +762,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +803,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,8 +1041,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1080,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1092,8 +1121,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1140,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1146,8 +1179,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,13 +1261,16 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1260,8 +1302,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1343,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,8 +1384,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1374,8 +1425,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1412,8 +1466,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1630,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1602,8 +1671,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1640,8 +1712,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,8 +1753,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1716,51 +1794,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,8 +1876,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1829,8 +1915,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1956,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1997,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,8 +2038,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1981,8 +2079,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2019,8 +2120,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,8 +2161,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2202,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2325,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2247,8 +2366,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,8 +2407,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2323,8 +2448,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,8 +2484,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2385,16 +2515,19 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,8 +2537,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2419,8 +2552,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2431,8 +2564,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2461,7 +2597,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2469,8 +2605,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2502,13 +2641,16 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2687,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2583,8 +2728,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,8 +2851,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2730,13 +2887,16 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,13 +3073,16 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-121800</v>
+        <v>121800</v>
       </c>
       <c r="E72" s="3">
         <v>-121800</v>
@@ -2924,7 +3097,7 @@
         <v>-121800</v>
       </c>
       <c r="I72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="J72" s="3">
         <v>-121700</v>
@@ -2941,8 +3114,11 @@
       <c r="N72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,8 +3237,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3088,13 +3273,16 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,51 +3319,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3212,8 +3406,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3464,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,13 +3669,16 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3494,8 +3710,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3768,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3850,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3662,8 +3891,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,16 +4072,19 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3868,8 +4113,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,13 +4154,16 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3942,6 +4193,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,8 +1068,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,8 +1110,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,8 +1216,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,13 +1304,16 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1305,8 +1348,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,8 +1436,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1428,8 +1480,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1674,8 +1744,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,8 +1832,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1797,54 +1876,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,8 +1963,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1918,8 +2005,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +2049,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2000,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,8 +2137,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2082,8 +2181,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2123,8 +2225,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,8 +2269,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2205,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,8 +2533,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,8 +2615,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2518,16 +2649,19 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,8 +2674,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2555,8 +2689,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2567,8 +2701,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2737,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2608,8 +2745,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2644,13 +2784,16 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2690,8 +2833,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,8 +3009,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2890,13 +3048,16 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,13 +3247,16 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>121800</v>
+        <v>-121800</v>
       </c>
       <c r="E72" s="3">
         <v>-121800</v>
@@ -3100,7 +3274,7 @@
         <v>-121800</v>
       </c>
       <c r="J72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="K72" s="3">
         <v>-121700</v>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,8 +3423,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3276,13 +3462,16 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,54 +3511,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,13 +3886,16 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,19 +4318,22 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4116,8 +4362,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4157,13 +4406,16 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4196,6 +4448,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,8 +1095,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,8 +1347,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,8 +1488,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1483,8 +1535,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1747,8 +1817,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,8 +1911,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1879,57 +1958,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,8 +2050,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2236,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,8 +2283,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,8 +2377,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2565,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,8 +2659,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2746,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2652,16 +2783,19 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,8 +2811,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2692,8 +2826,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2704,8 +2838,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2740,7 +2877,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2748,8 +2885,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2787,13 +2927,16 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,8 +2979,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,8 +3167,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3051,13 +3209,16 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,8 +3421,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3277,7 +3451,7 @@
         <v>-121800</v>
       </c>
       <c r="K72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="L72" s="3">
         <v>-121700</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,8 +3609,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3465,13 +3651,16 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,57 +3703,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,8 +4103,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4310,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,22 +4564,25 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,8 +4658,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,8 +1122,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,8 +1390,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,8 +1540,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1538,8 +1590,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1820,8 +1890,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,8 +1990,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1961,60 +2040,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,8 +2137,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2335,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2286,8 +2385,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,8 +2485,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,8 +2785,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +2877,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2786,16 +2917,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2814,8 +2948,8 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2829,8 +2963,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2841,8 +2975,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2880,7 +3017,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -2888,8 +3025,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2930,13 +3070,16 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,8 +3325,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3212,13 +3370,16 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,8 +3595,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3454,7 +3628,7 @@
         <v>-121800</v>
       </c>
       <c r="L72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="M72" s="3">
         <v>-121700</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,8 +3795,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3654,13 +3840,16 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,60 +3895,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,8 +4320,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4540,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,14 +4824,14 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,8 +4910,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,82 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,8 +1148,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1173,8 +1199,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,8 +1252,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1275,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,8 +1326,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,8 +1379,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,8 +1432,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1443,8 +1485,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1538,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,8 +1591,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1593,8 +1644,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1643,8 +1697,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1909,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1893,8 +1962,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1943,8 +2015,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,8 +2068,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2043,63 +2121,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,8 +2223,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2188,8 +2274,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,8 +2327,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,8 +2380,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,8 +2433,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2388,8 +2486,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2438,8 +2539,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,8 +2592,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2538,8 +2645,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2698,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2804,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2738,8 +2857,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,8 +2910,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2838,8 +2963,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,8 +3007,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,16 +3050,19 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,8 +3084,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2966,8 +3099,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2978,8 +3111,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3020,7 +3156,7 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3028,8 +3164,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3073,13 +3212,16 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,8 +3270,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3178,8 +3323,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,8 +3482,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3373,13 +3530,16 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,8 +3768,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3631,7 +3804,7 @@
         <v>-121800</v>
       </c>
       <c r="M72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="N72" s="3">
         <v>-121700</v>
@@ -3648,8 +3821,11 @@
       <c r="R72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,8 +3980,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3843,13 +4028,16 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,63 +4086,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4003,8 +4197,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4220,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,8 +4271,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,8 +4536,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4373,8 +4589,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4612,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,8 +4663,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,8 +4769,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4593,8 +4822,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,8 +5055,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,14 +5072,14 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4863,8 +5108,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,8 +5161,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4961,6 +5212,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,8 +1175,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1202,8 +1229,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1255,8 +1285,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1329,8 +1363,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1382,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,8 +1475,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1488,8 +1531,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1541,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,8 +1643,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1647,8 +1699,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1700,8 +1755,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1965,8 +2035,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2018,8 +2091,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,8 +2147,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2124,66 +2203,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,8 +2310,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2277,8 +2364,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2330,8 +2420,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2383,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,8 +2532,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2489,8 +2588,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2542,8 +2644,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,8 +2700,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2648,8 +2756,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2701,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,8 +2924,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2860,8 +2980,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,8 +3036,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2966,8 +3092,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,8 +3138,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,16 +3184,19 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3087,8 +3221,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3102,8 +3236,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3114,8 +3248,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3159,7 +3296,7 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3167,8 +3304,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3215,13 +3355,16 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3273,8 +3416,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3326,8 +3472,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,8 +3640,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3533,13 +3691,16 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,8 +3942,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3807,7 +3981,7 @@
         <v>-121800</v>
       </c>
       <c r="N72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="O72" s="3">
         <v>-121700</v>
@@ -3824,8 +3998,11 @@
       <c r="S72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,8 +4166,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4031,13 +4217,16 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,66 +4278,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4200,8 +4395,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4274,8 +4473,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,8 +4753,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4592,8 +4809,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,8 +4833,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,8 +4999,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4825,8 +5055,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,8 +5301,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5075,14 +5321,14 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5111,8 +5357,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5164,8 +5413,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5215,6 +5467,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>PBAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,94 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,8 +807,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +869,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +931,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +959,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1017,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1079,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1141,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1203,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,8 +1228,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1232,8 +1286,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,8 +1348,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1376,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1366,8 +1434,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,8 +1496,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,13 +1558,19 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1534,8 +1620,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,8 +1682,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,13 +1744,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1702,13 +1806,19 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1758,8 +1868,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1930,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1992,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +2054,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2116,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2038,13 +2178,19 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2094,8 +2240,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,13 +2302,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2206,69 +2364,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2459,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,8 +2483,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2367,8 +2541,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,8 +2603,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2479,8 +2665,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,8 +2727,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2591,8 +2789,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2647,8 +2851,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,8 +2913,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2759,8 +2975,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +3037,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +3099,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,8 +3161,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2983,8 +3223,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,8 +3285,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3095,8 +3347,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3375,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,8 +3399,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3187,16 +3449,22 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3224,11 +3492,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3239,11 +3507,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3251,8 +3519,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3299,16 +3573,22 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3358,13 +3638,19 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3419,8 +3705,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3475,8 +3767,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3829,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3891,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,8 +3953,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3694,13 +4010,19 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +4043,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +4101,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +4163,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4225,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,8 +4287,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3984,10 +4332,10 @@
         <v>-121800</v>
       </c>
       <c r="O72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="P72" s="3">
-        <v>-121700</v>
+        <v>-121800</v>
       </c>
       <c r="Q72" s="3">
         <v>-121700</v>
@@ -4001,8 +4349,14 @@
       <c r="T72" s="3">
         <v>-121700</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-121700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4411,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4473,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,8 +4535,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4220,13 +4592,19 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,74 +4659,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4398,8 +4788,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4816,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4476,8 +4874,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4936,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4998,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +5060,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +5122,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,8 +5184,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4812,8 +5246,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,8 +5274,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4890,8 +5332,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5394,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,8 +5456,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5058,8 +5518,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5546,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5604,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5666,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5728,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,8 +5790,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5324,17 +5816,17 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5360,8 +5852,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,8 +5914,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5470,6 +5974,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
